--- a/UDM.Insurance.Interface/Templates/PrintTemplateUpgradeNonRedeemed2cWLite.xlsx
+++ b/UDM.Insurance.Interface/Templates/PrintTemplateUpgradeNonRedeemed2cWLite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeshavM\Desktop\Project Files\udminsure\UDM.Insurance.Interface\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyleh\source\repos\Insure20230223\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79793CB7-8DC9-43ED-96B8-217FE6BB744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CE45B-9F08-40CF-A8E4-E6C2DC054E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1095" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <definedName name="LifeAssured2FirstName" localSheetId="4">'Cover And Lead'!$AX$46</definedName>
     <definedName name="LifeAssured2Surname">'Cover And Lead'!$AX$47</definedName>
     <definedName name="NewTotalPremium" localSheetId="4">'Cover And Lead'!$AJ$48</definedName>
+    <definedName name="NOKDetails">'Cover And Lead'!$AC$50</definedName>
     <definedName name="Offer">'Cover And Lead'!$V$48</definedName>
     <definedName name="PostalCode" localSheetId="4">'Cover And Lead'!$AP$42</definedName>
     <definedName name="RefNo" localSheetId="4">'Cover And Lead'!$A$42</definedName>
@@ -799,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1189,6 +1190,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1212,39 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1272,6 +1273,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,9 +1493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1529,9 +1533,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1564,26 +1568,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1616,26 +1603,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3870,7 +3840,7 @@
   <dimension ref="A1:BD306"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z56" sqref="Z56"/>
+      <selection activeCell="AC50" sqref="AC50:AI55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,14 +4955,14 @@
       <c r="F50" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="152"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="162"/>
+      <c r="N50" s="163"/>
       <c r="O50" s="71" t="s">
         <v>57</v>
       </c>
@@ -5011,15 +4981,15 @@
       <c r="Z50" s="71"/>
       <c r="AA50" s="71"/>
       <c r="AB50" s="71"/>
-      <c r="AC50" s="71" t="s">
+      <c r="AC50" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71"/>
+      <c r="AD50" s="181"/>
+      <c r="AE50" s="181"/>
+      <c r="AF50" s="181"/>
+      <c r="AG50" s="181"/>
+      <c r="AH50" s="181"/>
+      <c r="AI50" s="181"/>
       <c r="AJ50" s="145" t="s">
         <v>85</v>
       </c>
@@ -5054,15 +5024,15 @@
       <c r="C51" s="71"/>
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="154"/>
-      <c r="L51" s="154"/>
-      <c r="M51" s="154"/>
-      <c r="N51" s="155"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="165"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="166"/>
       <c r="O51" s="71"/>
       <c r="P51" s="71"/>
       <c r="Q51" s="71"/>
@@ -5077,22 +5047,22 @@
       <c r="Z51" s="71"/>
       <c r="AA51" s="71"/>
       <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
-      <c r="AJ51" s="162" t="s">
+      <c r="AC51" s="181"/>
+      <c r="AD51" s="181"/>
+      <c r="AE51" s="181"/>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="181"/>
+      <c r="AH51" s="181"/>
+      <c r="AI51" s="181"/>
+      <c r="AJ51" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="AK51" s="163"/>
-      <c r="AL51" s="163"/>
-      <c r="AM51" s="163"/>
-      <c r="AN51" s="163"/>
-      <c r="AO51" s="163"/>
-      <c r="AP51" s="164"/>
+      <c r="AK51" s="155"/>
+      <c r="AL51" s="155"/>
+      <c r="AM51" s="155"/>
+      <c r="AN51" s="155"/>
+      <c r="AO51" s="155"/>
+      <c r="AP51" s="156"/>
       <c r="AQ51" s="144" t="s">
         <v>80</v>
       </c>
@@ -5118,15 +5088,15 @@
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="154"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
-      <c r="N52" s="155"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="165"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="165"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="166"/>
       <c r="O52" s="71"/>
       <c r="P52" s="71"/>
       <c r="Q52" s="71"/>
@@ -5141,20 +5111,20 @@
       <c r="Z52" s="71"/>
       <c r="AA52" s="71"/>
       <c r="AB52" s="71"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
-      <c r="AF52" s="71"/>
-      <c r="AG52" s="71"/>
-      <c r="AH52" s="71"/>
-      <c r="AI52" s="71"/>
-      <c r="AJ52" s="165"/>
-      <c r="AK52" s="166"/>
-      <c r="AL52" s="166"/>
-      <c r="AM52" s="166"/>
-      <c r="AN52" s="166"/>
-      <c r="AO52" s="166"/>
-      <c r="AP52" s="167"/>
+      <c r="AC52" s="181"/>
+      <c r="AD52" s="181"/>
+      <c r="AE52" s="181"/>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="181"/>
+      <c r="AH52" s="181"/>
+      <c r="AI52" s="181"/>
+      <c r="AJ52" s="157"/>
+      <c r="AK52" s="158"/>
+      <c r="AL52" s="158"/>
+      <c r="AM52" s="158"/>
+      <c r="AN52" s="158"/>
+      <c r="AO52" s="158"/>
+      <c r="AP52" s="159"/>
       <c r="AQ52" s="145" t="s">
         <v>62</v>
       </c>
@@ -5182,15 +5152,15 @@
       <c r="C53" s="71"/>
       <c r="D53" s="71"/>
       <c r="E53" s="71"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="154"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="154"/>
-      <c r="K53" s="154"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="155"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="166"/>
       <c r="O53" s="71"/>
       <c r="P53" s="71"/>
       <c r="Q53" s="71"/>
@@ -5205,22 +5175,22 @@
       <c r="Z53" s="71"/>
       <c r="AA53" s="71"/>
       <c r="AB53" s="71"/>
-      <c r="AC53" s="71"/>
-      <c r="AD53" s="71"/>
-      <c r="AE53" s="71"/>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="71"/>
-      <c r="AH53" s="71"/>
-      <c r="AI53" s="71"/>
-      <c r="AJ53" s="162" t="s">
+      <c r="AC53" s="181"/>
+      <c r="AD53" s="181"/>
+      <c r="AE53" s="181"/>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="181"/>
+      <c r="AH53" s="181"/>
+      <c r="AI53" s="181"/>
+      <c r="AJ53" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="AK53" s="168"/>
-      <c r="AL53" s="168"/>
-      <c r="AM53" s="168"/>
-      <c r="AN53" s="168"/>
-      <c r="AO53" s="168"/>
-      <c r="AP53" s="169"/>
+      <c r="AK53" s="160"/>
+      <c r="AL53" s="160"/>
+      <c r="AM53" s="160"/>
+      <c r="AN53" s="160"/>
+      <c r="AO53" s="160"/>
+      <c r="AP53" s="161"/>
       <c r="AQ53" s="145" t="s">
         <v>61</v>
       </c>
@@ -5246,15 +5216,15 @@
       <c r="C54" s="71"/>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="158"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="168"/>
+      <c r="L54" s="168"/>
+      <c r="M54" s="168"/>
+      <c r="N54" s="169"/>
       <c r="O54" s="71"/>
       <c r="P54" s="71"/>
       <c r="Q54" s="71"/>
@@ -5269,20 +5239,20 @@
       <c r="Z54" s="71"/>
       <c r="AA54" s="71"/>
       <c r="AB54" s="71"/>
-      <c r="AC54" s="71"/>
-      <c r="AD54" s="71"/>
-      <c r="AE54" s="71"/>
-      <c r="AF54" s="71"/>
-      <c r="AG54" s="71"/>
-      <c r="AH54" s="71"/>
-      <c r="AI54" s="71"/>
-      <c r="AJ54" s="165"/>
-      <c r="AK54" s="166"/>
-      <c r="AL54" s="166"/>
-      <c r="AM54" s="166"/>
-      <c r="AN54" s="166"/>
-      <c r="AO54" s="166"/>
-      <c r="AP54" s="167"/>
+      <c r="AC54" s="181"/>
+      <c r="AD54" s="181"/>
+      <c r="AE54" s="181"/>
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="181"/>
+      <c r="AH54" s="181"/>
+      <c r="AI54" s="181"/>
+      <c r="AJ54" s="157"/>
+      <c r="AK54" s="158"/>
+      <c r="AL54" s="158"/>
+      <c r="AM54" s="158"/>
+      <c r="AN54" s="158"/>
+      <c r="AO54" s="158"/>
+      <c r="AP54" s="159"/>
       <c r="AQ54" s="145" t="s">
         <v>60</v>
       </c>
@@ -5333,22 +5303,22 @@
       <c r="Z55" s="71"/>
       <c r="AA55" s="71"/>
       <c r="AB55" s="71"/>
-      <c r="AC55" s="71"/>
-      <c r="AD55" s="71"/>
-      <c r="AE55" s="71"/>
-      <c r="AF55" s="71"/>
-      <c r="AG55" s="71"/>
-      <c r="AH55" s="71"/>
-      <c r="AI55" s="71"/>
-      <c r="AJ55" s="159" t="s">
+      <c r="AC55" s="181"/>
+      <c r="AD55" s="181"/>
+      <c r="AE55" s="181"/>
+      <c r="AF55" s="181"/>
+      <c r="AG55" s="181"/>
+      <c r="AH55" s="181"/>
+      <c r="AI55" s="181"/>
+      <c r="AJ55" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="AK55" s="160"/>
-      <c r="AL55" s="160"/>
-      <c r="AM55" s="160"/>
-      <c r="AN55" s="160"/>
-      <c r="AO55" s="160"/>
-      <c r="AP55" s="161"/>
+      <c r="AK55" s="152"/>
+      <c r="AL55" s="152"/>
+      <c r="AM55" s="152"/>
+      <c r="AN55" s="152"/>
+      <c r="AO55" s="152"/>
+      <c r="AP55" s="153"/>
       <c r="AQ55" s="126" t="s">
         <v>59</v>
       </c>
